--- a/FileInput/Controller.xlsx
+++ b/FileInput/Controller.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\SureshSelenium\ProjectWS\ERP_StockAccounting\FileInput\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BA92AA17-EAD4-48EC-B7DC-09BA7C4364E3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{247789FD-D8D7-4C6F-A282-4B4830C34191}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="MasterTestCases" sheetId="1" r:id="rId1"/>
@@ -202,9 +202,6 @@
     <t xml:space="preserve">Select Supplier Number </t>
   </si>
   <si>
-    <t>x_Category</t>
-  </si>
-  <si>
     <t>//select[@id='x_Supplier_Number']</t>
   </si>
   <si>
@@ -431,6 +428,9 @@
   </si>
   <si>
     <t>captureCus</t>
+  </si>
+  <si>
+    <t>//select[@id='x_Category']</t>
   </si>
 </sst>
 </file>
@@ -882,7 +882,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:F11"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="A2" sqref="A2:F11"/>
     </sheetView>
   </sheetViews>
@@ -1105,9 +1105,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:F30"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A11" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A2" sqref="A2:F30"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="C13" sqref="C13:C15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1363,10 +1363,10 @@
         <v>24</v>
       </c>
       <c r="C14" s="2" t="s">
-        <v>29</v>
+        <v>25</v>
       </c>
       <c r="D14" s="2" t="s">
-        <v>57</v>
+        <v>133</v>
       </c>
       <c r="E14" s="2">
         <v>10</v>
@@ -1381,10 +1381,10 @@
         <v>55</v>
       </c>
       <c r="C15" s="2" t="s">
-        <v>29</v>
+        <v>25</v>
       </c>
       <c r="D15" s="2" t="s">
-        <v>57</v>
+        <v>133</v>
       </c>
       <c r="E15" s="2">
         <v>1</v>
@@ -1402,7 +1402,7 @@
         <v>25</v>
       </c>
       <c r="D16" s="2" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="E16" s="2">
         <v>1</v>
@@ -1411,16 +1411,16 @@
     </row>
     <row r="17" spans="1:6" ht="18" x14ac:dyDescent="0.35">
       <c r="A17" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="B17" s="2" t="s">
         <v>59</v>
-      </c>
-      <c r="B17" s="2" t="s">
-        <v>60</v>
       </c>
       <c r="C17" s="2" t="s">
         <v>37</v>
       </c>
       <c r="D17" s="2" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="E17" s="2" t="s">
         <v>20</v>
@@ -1429,7 +1429,7 @@
     </row>
     <row r="18" spans="1:6" ht="18" x14ac:dyDescent="0.35">
       <c r="A18" s="2" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="B18" s="2" t="s">
         <v>28</v>
@@ -1438,16 +1438,16 @@
         <v>29</v>
       </c>
       <c r="D18" s="2" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="E18" s="2" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="F18" s="2"/>
     </row>
     <row r="19" spans="1:6" ht="18" x14ac:dyDescent="0.35">
       <c r="A19" s="2" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="B19" s="2" t="s">
         <v>55</v>
@@ -1456,7 +1456,7 @@
         <v>37</v>
       </c>
       <c r="D19" s="2" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="E19" s="2">
         <v>1</v>
@@ -1465,7 +1465,7 @@
     </row>
     <row r="20" spans="1:6" ht="18" x14ac:dyDescent="0.35">
       <c r="A20" s="2" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="B20" s="2" t="s">
         <v>28</v>
@@ -1474,7 +1474,7 @@
         <v>29</v>
       </c>
       <c r="D20" s="2" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="E20" s="2">
         <v>1000000</v>
@@ -1483,7 +1483,7 @@
     </row>
     <row r="21" spans="1:6" ht="18" x14ac:dyDescent="0.35">
       <c r="A21" s="2" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="B21" s="2" t="s">
         <v>28</v>
@@ -1492,7 +1492,7 @@
         <v>25</v>
       </c>
       <c r="D21" s="2" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="E21" s="2">
         <v>5000000</v>
@@ -1501,7 +1501,7 @@
     </row>
     <row r="22" spans="1:6" ht="18" x14ac:dyDescent="0.35">
       <c r="A22" s="2" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="B22" s="2" t="s">
         <v>28</v>
@@ -1510,16 +1510,16 @@
         <v>37</v>
       </c>
       <c r="D22" s="2" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="E22" s="2" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="F22" s="2"/>
     </row>
     <row r="23" spans="1:6" ht="18" x14ac:dyDescent="0.35">
       <c r="A23" s="2" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="B23" s="2" t="s">
         <v>36</v>
@@ -1528,7 +1528,7 @@
         <v>37</v>
       </c>
       <c r="D23" s="2" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="E23" s="2" t="s">
         <v>20</v>
@@ -1537,7 +1537,7 @@
     </row>
     <row r="24" spans="1:6" ht="18" x14ac:dyDescent="0.35">
       <c r="A24" s="2" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="B24" s="2" t="s">
         <v>24</v>
@@ -1546,7 +1546,7 @@
         <v>25</v>
       </c>
       <c r="D24" s="2" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="E24" s="2">
         <v>10</v>
@@ -1555,7 +1555,7 @@
     </row>
     <row r="25" spans="1:6" ht="18" x14ac:dyDescent="0.35">
       <c r="A25" s="2" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="B25" s="2" t="s">
         <v>36</v>
@@ -1564,7 +1564,7 @@
         <v>25</v>
       </c>
       <c r="D25" s="2" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="E25" s="2" t="s">
         <v>20</v>
@@ -1573,7 +1573,7 @@
     </row>
     <row r="26" spans="1:6" ht="18" x14ac:dyDescent="0.35">
       <c r="A26" s="2" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="B26" s="2" t="s">
         <v>24</v>
@@ -1582,7 +1582,7 @@
         <v>25</v>
       </c>
       <c r="D26" s="2" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="E26" s="2">
         <v>10</v>
@@ -1591,7 +1591,7 @@
     </row>
     <row r="27" spans="1:6" ht="18" x14ac:dyDescent="0.35">
       <c r="A27" s="2" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="B27" s="2" t="s">
         <v>36</v>
@@ -1600,7 +1600,7 @@
         <v>25</v>
       </c>
       <c r="D27" s="2" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="E27" s="2" t="s">
         <v>20</v>
@@ -1609,10 +1609,10 @@
     </row>
     <row r="28" spans="1:6" ht="18" x14ac:dyDescent="0.35">
       <c r="A28" s="2" t="s">
+        <v>81</v>
+      </c>
+      <c r="B28" s="2" t="s">
         <v>82</v>
-      </c>
-      <c r="B28" s="2" t="s">
-        <v>83</v>
       </c>
       <c r="C28" s="2" t="s">
         <v>20</v>
@@ -1851,7 +1851,7 @@
     </row>
     <row r="10" spans="1:6" ht="18" x14ac:dyDescent="0.35">
       <c r="A10" s="2" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="B10" s="2" t="s">
         <v>24</v>
@@ -1860,7 +1860,7 @@
         <v>25</v>
       </c>
       <c r="D10" s="2" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="E10" s="2">
         <v>10</v>
@@ -1869,7 +1869,7 @@
     </row>
     <row r="11" spans="1:6" ht="18" x14ac:dyDescent="0.35">
       <c r="A11" s="2" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="B11" s="2" t="s">
         <v>36</v>
@@ -1878,7 +1878,7 @@
         <v>25</v>
       </c>
       <c r="D11" s="2" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="E11" s="2" t="s">
         <v>20</v>
@@ -1887,7 +1887,7 @@
     </row>
     <row r="12" spans="1:6" ht="18" x14ac:dyDescent="0.35">
       <c r="A12" s="2" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="B12" s="2" t="s">
         <v>24</v>
@@ -1923,7 +1923,7 @@
     </row>
     <row r="14" spans="1:6" ht="18" x14ac:dyDescent="0.35">
       <c r="A14" s="2" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="B14" s="2" t="s">
         <v>24</v>
@@ -1932,7 +1932,7 @@
         <v>29</v>
       </c>
       <c r="D14" s="2" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="E14" s="2">
         <v>10</v>
@@ -1941,16 +1941,16 @@
     </row>
     <row r="15" spans="1:6" ht="18" x14ac:dyDescent="0.35">
       <c r="A15" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="B15" s="2" t="s">
         <v>89</v>
-      </c>
-      <c r="B15" s="2" t="s">
-        <v>90</v>
       </c>
       <c r="C15" s="2" t="s">
         <v>29</v>
       </c>
       <c r="D15" s="2" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="E15" s="2" t="s">
         <v>20</v>
@@ -1959,7 +1959,7 @@
     </row>
     <row r="16" spans="1:6" ht="18" x14ac:dyDescent="0.35">
       <c r="A16" s="2" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="B16" s="2" t="s">
         <v>28</v>
@@ -1968,16 +1968,16 @@
         <v>29</v>
       </c>
       <c r="D16" s="2" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="E16" s="2" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="F16" s="2"/>
     </row>
     <row r="17" spans="1:6" ht="18" x14ac:dyDescent="0.35">
       <c r="A17" s="2" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="B17" s="2" t="s">
         <v>28</v>
@@ -1986,16 +1986,16 @@
         <v>29</v>
       </c>
       <c r="D17" s="2" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="E17" s="2" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="F17" s="2"/>
     </row>
     <row r="18" spans="1:6" ht="18" x14ac:dyDescent="0.35">
       <c r="A18" s="2" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="B18" s="2" t="s">
         <v>28</v>
@@ -2004,16 +2004,16 @@
         <v>29</v>
       </c>
       <c r="D18" s="2" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="E18" s="2" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="F18" s="2"/>
     </row>
     <row r="19" spans="1:6" ht="18" x14ac:dyDescent="0.35">
       <c r="A19" s="2" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="B19" s="2" t="s">
         <v>28</v>
@@ -2022,16 +2022,16 @@
         <v>29</v>
       </c>
       <c r="D19" s="2" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="E19" s="2" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="F19" s="2"/>
     </row>
     <row r="20" spans="1:6" ht="18" x14ac:dyDescent="0.35">
       <c r="A20" s="2" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="B20" s="2" t="s">
         <v>28</v>
@@ -2040,16 +2040,16 @@
         <v>29</v>
       </c>
       <c r="D20" s="2" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="E20" s="2" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="F20" s="2"/>
     </row>
     <row r="21" spans="1:6" ht="18" x14ac:dyDescent="0.35">
       <c r="A21" s="2" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="B21" s="2" t="s">
         <v>28</v>
@@ -2058,16 +2058,16 @@
         <v>29</v>
       </c>
       <c r="D21" s="2" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="E21" s="2" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="F21" s="2"/>
     </row>
     <row r="22" spans="1:6" ht="18" x14ac:dyDescent="0.35">
       <c r="A22" s="2" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="B22" s="2" t="s">
         <v>28</v>
@@ -2076,16 +2076,16 @@
         <v>29</v>
       </c>
       <c r="D22" s="2" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="E22" s="2" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="F22" s="2"/>
     </row>
     <row r="23" spans="1:6" ht="18" x14ac:dyDescent="0.35">
       <c r="A23" s="2" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="B23" s="2" t="s">
         <v>28</v>
@@ -2094,16 +2094,16 @@
         <v>29</v>
       </c>
       <c r="D23" s="2" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="E23" s="2" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="F23" s="2"/>
     </row>
     <row r="24" spans="1:6" ht="18" x14ac:dyDescent="0.35">
       <c r="A24" s="2" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="B24" s="2" t="s">
         <v>28</v>
@@ -2112,16 +2112,16 @@
         <v>29</v>
       </c>
       <c r="D24" s="2" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="E24" s="2" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="F24" s="2"/>
     </row>
     <row r="25" spans="1:6" ht="18" x14ac:dyDescent="0.35">
       <c r="A25" s="2" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="B25" s="2" t="s">
         <v>36</v>
@@ -2130,7 +2130,7 @@
         <v>37</v>
       </c>
       <c r="D25" s="2" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="E25" s="2" t="s">
         <v>20</v>
@@ -2139,7 +2139,7 @@
     </row>
     <row r="26" spans="1:6" ht="18" x14ac:dyDescent="0.35">
       <c r="A26" s="2" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="B26" s="2" t="s">
         <v>24</v>
@@ -2148,7 +2148,7 @@
         <v>25</v>
       </c>
       <c r="D26" s="2" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="E26" s="2">
         <v>10</v>
@@ -2157,7 +2157,7 @@
     </row>
     <row r="27" spans="1:6" ht="18" x14ac:dyDescent="0.35">
       <c r="A27" s="2" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="B27" s="2" t="s">
         <v>36</v>
@@ -2166,7 +2166,7 @@
         <v>25</v>
       </c>
       <c r="D27" s="2" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="E27" s="2" t="s">
         <v>20</v>
@@ -2175,7 +2175,7 @@
     </row>
     <row r="28" spans="1:6" ht="18" x14ac:dyDescent="0.35">
       <c r="A28" s="2" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="B28" s="2" t="s">
         <v>24</v>
@@ -2184,7 +2184,7 @@
         <v>25</v>
       </c>
       <c r="D28" s="2" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="E28" s="2">
         <v>10</v>
@@ -2193,7 +2193,7 @@
     </row>
     <row r="29" spans="1:6" ht="18" x14ac:dyDescent="0.35">
       <c r="A29" s="2" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="B29" s="2" t="s">
         <v>36</v>
@@ -2202,7 +2202,7 @@
         <v>25</v>
       </c>
       <c r="D29" s="2" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="E29" s="2" t="s">
         <v>20</v>
@@ -2211,10 +2211,10 @@
     </row>
     <row r="30" spans="1:6" ht="18" x14ac:dyDescent="0.35">
       <c r="A30" s="2" t="s">
+        <v>117</v>
+      </c>
+      <c r="B30" s="2" t="s">
         <v>118</v>
-      </c>
-      <c r="B30" s="2" t="s">
-        <v>119</v>
       </c>
       <c r="C30" s="2" t="s">
         <v>20</v>
@@ -2455,7 +2455,7 @@
     </row>
     <row r="10" spans="1:6" ht="18" x14ac:dyDescent="0.35">
       <c r="A10" s="2" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="B10" s="2" t="s">
         <v>24</v>
@@ -2464,7 +2464,7 @@
         <v>25</v>
       </c>
       <c r="D10" s="2" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="E10" s="2">
         <v>10</v>
@@ -2473,7 +2473,7 @@
     </row>
     <row r="11" spans="1:6" ht="18" x14ac:dyDescent="0.35">
       <c r="A11" s="2" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="B11" s="2" t="s">
         <v>36</v>
@@ -2482,7 +2482,7 @@
         <v>25</v>
       </c>
       <c r="D11" s="2" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="E11" s="2" t="s">
         <v>20</v>
@@ -2491,7 +2491,7 @@
     </row>
     <row r="12" spans="1:6" ht="18" x14ac:dyDescent="0.35">
       <c r="A12" s="2" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="B12" s="2" t="s">
         <v>24</v>
@@ -2527,7 +2527,7 @@
     </row>
     <row r="14" spans="1:6" ht="18" x14ac:dyDescent="0.35">
       <c r="A14" s="2" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="B14" s="2" t="s">
         <v>24</v>
@@ -2536,7 +2536,7 @@
         <v>29</v>
       </c>
       <c r="D14" s="2" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="E14" s="2">
         <v>10</v>
@@ -2545,16 +2545,16 @@
     </row>
     <row r="15" spans="1:6" ht="18" x14ac:dyDescent="0.35">
       <c r="A15" s="2" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="B15" s="2" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="C15" s="2" t="s">
         <v>29</v>
       </c>
       <c r="D15" s="2" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="E15" s="2" t="s">
         <v>20</v>
@@ -2563,7 +2563,7 @@
     </row>
     <row r="16" spans="1:6" ht="18" x14ac:dyDescent="0.35">
       <c r="A16" s="2" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="B16" s="2" t="s">
         <v>28</v>
@@ -2572,16 +2572,16 @@
         <v>29</v>
       </c>
       <c r="D16" s="2" t="s">
+        <v>126</v>
+      </c>
+      <c r="E16" s="2" t="s">
         <v>127</v>
-      </c>
-      <c r="E16" s="2" t="s">
-        <v>128</v>
       </c>
       <c r="F16" s="2"/>
     </row>
     <row r="17" spans="1:6" ht="18" x14ac:dyDescent="0.35">
       <c r="A17" s="2" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="B17" s="2" t="s">
         <v>28</v>
@@ -2590,16 +2590,16 @@
         <v>29</v>
       </c>
       <c r="D17" s="2" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="E17" s="2" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="F17" s="2"/>
     </row>
     <row r="18" spans="1:6" ht="18" x14ac:dyDescent="0.35">
       <c r="A18" s="2" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="B18" s="2" t="s">
         <v>28</v>
@@ -2608,16 +2608,16 @@
         <v>29</v>
       </c>
       <c r="D18" s="2" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="E18" s="2" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="F18" s="2"/>
     </row>
     <row r="19" spans="1:6" ht="18" x14ac:dyDescent="0.35">
       <c r="A19" s="2" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="B19" s="2" t="s">
         <v>28</v>
@@ -2626,16 +2626,16 @@
         <v>29</v>
       </c>
       <c r="D19" s="2" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="E19" s="2" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="F19" s="2"/>
     </row>
     <row r="20" spans="1:6" ht="18" x14ac:dyDescent="0.35">
       <c r="A20" s="2" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="B20" s="2" t="s">
         <v>28</v>
@@ -2644,16 +2644,16 @@
         <v>29</v>
       </c>
       <c r="D20" s="2" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="E20" s="2" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="F20" s="2"/>
     </row>
     <row r="21" spans="1:6" ht="18" x14ac:dyDescent="0.35">
       <c r="A21" s="2" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="B21" s="2" t="s">
         <v>28</v>
@@ -2662,16 +2662,16 @@
         <v>29</v>
       </c>
       <c r="D21" s="2" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="E21" s="2" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="F21" s="2"/>
     </row>
     <row r="22" spans="1:6" ht="18" x14ac:dyDescent="0.35">
       <c r="A22" s="2" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="B22" s="2" t="s">
         <v>28</v>
@@ -2680,16 +2680,16 @@
         <v>29</v>
       </c>
       <c r="D22" s="2" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="E22" s="2" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="F22" s="2"/>
     </row>
     <row r="23" spans="1:6" ht="18" x14ac:dyDescent="0.35">
       <c r="A23" s="2" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="B23" s="2" t="s">
         <v>28</v>
@@ -2698,16 +2698,16 @@
         <v>29</v>
       </c>
       <c r="D23" s="2" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="E23" s="2" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="F23" s="2"/>
     </row>
     <row r="24" spans="1:6" ht="18" x14ac:dyDescent="0.35">
       <c r="A24" s="2" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="B24" s="2" t="s">
         <v>28</v>
@@ -2716,16 +2716,16 @@
         <v>29</v>
       </c>
       <c r="D24" s="2" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="E24" s="2" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="F24" s="2"/>
     </row>
     <row r="25" spans="1:6" ht="18" x14ac:dyDescent="0.35">
       <c r="A25" s="2" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="B25" s="2" t="s">
         <v>36</v>
@@ -2734,7 +2734,7 @@
         <v>37</v>
       </c>
       <c r="D25" s="2" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="E25" s="2" t="s">
         <v>20</v>
@@ -2743,7 +2743,7 @@
     </row>
     <row r="26" spans="1:6" ht="18" x14ac:dyDescent="0.35">
       <c r="A26" s="2" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="B26" s="2" t="s">
         <v>24</v>
@@ -2752,7 +2752,7 @@
         <v>25</v>
       </c>
       <c r="D26" s="2" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="E26" s="2">
         <v>10</v>
@@ -2761,7 +2761,7 @@
     </row>
     <row r="27" spans="1:6" ht="18" x14ac:dyDescent="0.35">
       <c r="A27" s="2" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="B27" s="2" t="s">
         <v>36</v>
@@ -2770,7 +2770,7 @@
         <v>25</v>
       </c>
       <c r="D27" s="2" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="E27" s="2" t="s">
         <v>20</v>
@@ -2779,7 +2779,7 @@
     </row>
     <row r="28" spans="1:6" ht="18" x14ac:dyDescent="0.35">
       <c r="A28" s="2" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="B28" s="2" t="s">
         <v>24</v>
@@ -2788,7 +2788,7 @@
         <v>25</v>
       </c>
       <c r="D28" s="2" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="E28" s="2">
         <v>10</v>
@@ -2797,7 +2797,7 @@
     </row>
     <row r="29" spans="1:6" ht="18" x14ac:dyDescent="0.35">
       <c r="A29" s="2" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="B29" s="2" t="s">
         <v>36</v>
@@ -2806,7 +2806,7 @@
         <v>25</v>
       </c>
       <c r="D29" s="2" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="E29" s="2" t="s">
         <v>20</v>
@@ -2815,10 +2815,10 @@
     </row>
     <row r="30" spans="1:6" ht="18" x14ac:dyDescent="0.35">
       <c r="A30" s="2" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="B30" s="2" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="C30" s="2" t="s">
         <v>20</v>

--- a/FileInput/Controller.xlsx
+++ b/FileInput/Controller.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\SureshSelenium\ProjectWS\ERP_StockAccounting\FileInput\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{247789FD-D8D7-4C6F-A282-4B4830C34191}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8BC41615-EF1B-4745-B580-EFE93401E20F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1106,8 +1106,8 @@
   <dimension ref="A1:F30"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C13" sqref="C13:C15"/>
+      <pane ySplit="1" topLeftCell="A5" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A16" sqref="A16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
